--- a/2025/data and code/effect_sizes_and_moderators.xlsx
+++ b/2025/data and code/effect_sizes_and_moderators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qizhouduan/Documents/GitHub/ptg-covid/data and code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qizhouduan/Documents/GitHub/ptg-covid/2025/data and code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6551BFCC-A3E5-CE4B-99DD-F9B7E6B3E9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C4916C-D772-424A-A427-FDFA9B6E6882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15940" yWindow="7220" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="139">
   <si>
     <t>Source</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Sarialioglu et al. (2022)</t>
   </si>
   <si>
-    <t>Uziel et al. (2021)</t>
-  </si>
-  <si>
     <t>Veronese et al. (2022)</t>
   </si>
   <si>
@@ -434,6 +431,24 @@
   </si>
   <si>
     <t>General Students</t>
+  </si>
+  <si>
+    <t>continents</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Oceania</t>
   </si>
 </sst>
 </file>
@@ -507,14 +522,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:P999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -747,21 +761,21 @@
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="26" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="27" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,41 +788,44 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -822,41 +839,44 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>22.257999999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>5.0519999999999996</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <f>226+155</f>
         <v>381</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -870,41 +890,44 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1">
+        <v>135</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
         <v>65.194999999999993</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>17.943999999999999</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <f>94+141+84+46</f>
         <v>365</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
-        <v>1</v>
+      <c r="M3" s="1">
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -918,23 +941,23 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
+        <v>135</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1">
         <v>55.78</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <f>517+399</f>
         <v>916</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
+      <c r="J4" s="2">
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -942,17 +965,20 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -966,22 +992,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
+        <v>135</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1">
         <f>ROUND(38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100,2)</f>
         <v>64.8</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>10.44</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>422</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -990,17 +1016,20 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>1</v>
+      <c r="M5" s="1">
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1014,40 +1043,43 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>28</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>11.5</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>12596</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1058,21 +1090,21 @@
         <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
         <v>45.57</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>11.7</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>300</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="1">
@@ -1081,17 +1113,20 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1105,21 +1140,21 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
+        <v>137</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
         <v>47.73</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>24.63</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>352</v>
       </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="1">
@@ -1128,17 +1163,20 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
+      <c r="M8" s="1">
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1152,22 +1190,22 @@
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
+        <v>135</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
         <v>53.13</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>17.22</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f>235+92</f>
         <v>327</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -1176,17 +1214,20 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
-        <v>1</v>
+      <c r="M9" s="1">
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1200,21 +1241,21 @@
         <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>12.64</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>11.01</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1424</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="1">
@@ -1223,17 +1264,20 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
-        <v>1</v>
+      <c r="M10" s="1">
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <v>0.753</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1247,21 +1291,21 @@
         <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1">
+        <v>135</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>14</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>251</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="1">
@@ -1270,17 +1314,20 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1294,21 +1341,21 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1">
+        <v>135</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1">
         <v>96.26</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>21.57</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>266</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="1">
@@ -1317,17 +1364,20 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
-        <v>1</v>
+      <c r="M12" s="1">
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
         <v>0.91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1341,21 +1391,21 @@
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1">
+        <v>136</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1">
         <v>47</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>28.2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>296</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="1">
@@ -1364,17 +1414,20 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1388,40 +1441,43 @@
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>21.6</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>6.8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12686</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
+      <c r="J14" s="2">
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1435,40 +1491,43 @@
         <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>36.51</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>7.6</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1951</v>
       </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
+      <c r="J15" s="2">
+        <v>1</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1482,21 +1541,21 @@
         <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1">
+        <v>136</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1">
         <v>47.95</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>24.48</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>176</v>
       </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" s="1">
@@ -1505,17 +1564,20 @@
       <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
+      <c r="M16" s="1">
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1529,40 +1591,43 @@
         <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>21.9</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1510</v>
       </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1576,21 +1641,21 @@
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1">
+        <v>137</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1">
         <v>63.49</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>20.64</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>292</v>
       </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="1">
@@ -1599,17 +1664,20 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -1620,40 +1688,43 @@
         <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="1">
+        <v>136</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1">
         <v>67.17</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>14.79</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>1790</v>
       </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>1</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1667,21 +1738,21 @@
         <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="1">
+        <v>136</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1">
         <v>58.34</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>26.76</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>442</v>
       </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="1">
@@ -1690,17 +1761,20 @@
       <c r="L20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="2">
-        <v>0</v>
+      <c r="M20" s="1">
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -1714,40 +1788,43 @@
         <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="1">
+        <v>135</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1">
         <v>71.75</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>18.53</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1512</v>
       </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -1761,40 +1838,43 @@
         <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>30.33</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>11.65</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>252</v>
       </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1808,40 +1888,43 @@
         <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1">
+        <v>135</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1">
         <v>64.81</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>20.27</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>166</v>
       </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -1854,41 +1937,44 @@
       <c r="D24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>46.81</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>11.93</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>290</v>
       </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
@@ -1896,46 +1982,49 @@
         <v>22.42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1">
+        <v>135</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1">
         <v>63.36</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>20.91</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>100</v>
       </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -1949,40 +2038,43 @@
         <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="1">
+        <v>137</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1">
         <v>31.82</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>23.1</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>733</v>
       </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
-      <c r="K26" s="1">
-        <v>0</v>
+      <c r="K26" s="2">
+        <v>1</v>
       </c>
       <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
       </c>
       <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
         <v>0.622</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -1996,40 +2088,43 @@
         <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>20.350000000000001</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>10.92</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>854</v>
       </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>0</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
@@ -2037,46 +2132,49 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="1">
+        <v>136</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1">
         <v>51.44</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>12.5</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>785</v>
       </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -2090,40 +2188,43 @@
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="1">
+        <v>135</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1">
         <v>62.83</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>23.19</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>115</v>
       </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
         <v>1</v>
       </c>
       <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -2137,42 +2238,45 @@
         <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="1">
+        <v>137</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1">
         <f>ROUND((53.97*253+45.56*176)/(253+176),2)</f>
         <v>50.52</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <f>253+176</f>
         <v>429</v>
       </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
       </c>
-      <c r="M30" s="2">
-        <v>0</v>
+      <c r="M30" s="1">
+        <v>1</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
       </c>
       <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -2186,40 +2290,43 @@
         <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="1">
+        <v>135</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1">
         <v>75.47</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>21.8</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>407</v>
       </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -2233,21 +2340,21 @@
         <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="1">
+        <v>137</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1">
         <v>70.91</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>22.54</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>184</v>
       </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="1">
@@ -2256,17 +2363,20 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="2">
-        <v>1</v>
+      <c r="M32" s="1">
+        <v>0</v>
       </c>
       <c r="N32" s="2">
         <v>1</v>
       </c>
       <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -2280,40 +2390,43 @@
         <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="1">
+        <v>137</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1">
         <v>69.95</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>15.73</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>263</v>
       </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
         <v>0</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -2327,41 +2440,44 @@
         <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>40</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <f>1.35 * 16</f>
         <v>21.6</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>152</v>
       </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
       </c>
       <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -2375,42 +2491,45 @@
         <v>28</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="1">
+        <v>135</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1">
         <f>73.92 /25 * 21</f>
         <v>62.092799999999997</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <f>SQRT(22.1^2 *(21/25)^2 )</f>
         <v>18.564</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>692</v>
       </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
         <v>0</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -2424,40 +2543,43 @@
         <v>65</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="1">
+        <v>137</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1">
         <v>43.05</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>26.59</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <v>118</v>
       </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
         <v>0</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
       </c>
       <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -2471,22 +2593,22 @@
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="2">
+        <v>137</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="2">
         <v>34.51</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>25.46</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>35</v>
       </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
       <c r="J37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -2495,16 +2617,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -2518,41 +2643,44 @@
         <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="1">
+        <v>135</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1">
         <f>3.01 * 21</f>
         <v>63.209999999999994</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>17</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="3">
         <v>183</v>
       </c>
-      <c r="I38" s="2">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="J38" s="2">
         <v>1</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
         <v>0</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
       </c>
       <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -2566,42 +2694,45 @@
         <v>31</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <f>2.3 * 10</f>
         <v>23</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <f>SQRT(0.51^2 * 10^2)</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>436</v>
       </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
+      <c r="J39" s="2">
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
         <v>0.69950000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2615,42 +2746,45 @@
         <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <f>3.62 *10</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <f>SQRT(1.22^2 * 100)</f>
         <v>12.2</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <v>295</v>
       </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="J40" s="2">
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
         <v>0</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
       </c>
       <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
@@ -2664,28 +2798,28 @@
         <v>87</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="2">
+        <v>137</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="2">
         <v>62.24</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>429</v>
       </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
       <c r="J41" s="2">
         <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="2">
         <v>0</v>
@@ -2694,10 +2828,13 @@
         <v>0</v>
       </c>
       <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>88</v>
       </c>
@@ -2711,40 +2848,43 @@
         <v>31</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="1">
+        <v>136</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1">
         <v>47.4</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>27</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>213</v>
       </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="J42" s="2">
         <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
         <v>0</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
       </c>
       <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
         <v>0.874</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>89</v>
       </c>
@@ -2752,48 +2892,51 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="2">
+        <v>135</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="2">
         <f>2.169 * 21</f>
         <v>45.548999999999999</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <f>SQRT( 1.299^2 * 21^2)</f>
         <v>27.279</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>369</v>
       </c>
-      <c r="I43" s="2">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
         <v>0</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
       </c>
       <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>90</v>
       </c>
@@ -2807,26 +2950,26 @@
         <v>28</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="2">
+        <v>135</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2">
         <f>45.4545</f>
         <v>45.454500000000003</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>25.452000000000002</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>575</v>
       </c>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
       <c r="K44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
@@ -2838,10 +2981,13 @@
         <v>0</v>
       </c>
       <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>91</v>
       </c>
@@ -2855,40 +3001,43 @@
         <v>31</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="1">
+        <v>136</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1">
         <v>37.085999999999999</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>58.860349999999997</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>669</v>
       </c>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
         <v>0</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
       </c>
       <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -2902,42 +3051,45 @@
         <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <f>4.11 * 10</f>
         <v>41.1</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <f>SQRT(0.84^2 * 10^2)</f>
         <v>8.3999999999999986</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>172</v>
       </c>
-      <c r="I46" s="2">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
         <v>0</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
       </c>
       <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
         <v>0.97750000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -2951,42 +3103,45 @@
         <v>28</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="1">
+        <v>135</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="1">
         <f>3.98 * 21</f>
         <v>83.58</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <f>SQRT(0.73^2 * 21^2)</f>
         <v>15.33</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>760</v>
       </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
         <v>0</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
       </c>
       <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -3000,42 +3155,45 @@
         <v>95</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="1">
+        <v>135</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1">
         <f>2.74 * 21</f>
         <v>57.540000000000006</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <f>SQRT(1.21^2 * 21^2)</f>
         <v>25.41</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>120</v>
       </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
       </c>
       <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -3049,40 +3207,43 @@
         <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="1">
+        <v>137</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1">
         <v>58.09</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>9.69</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>253</v>
       </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
       </c>
       <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
@@ -3096,42 +3257,45 @@
         <v>98</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="1">
+        <v>137</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="1">
         <f>3.25 * 21</f>
         <v>68.25</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <f>SQRT(2.27^2 * 21^2)</f>
         <v>47.67</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I50" s="3">
         <v>4934</v>
       </c>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
         <v>0</v>
       </c>
       <c r="N50" s="2">
         <v>0</v>
       </c>
       <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
         <v>0.628</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
@@ -3145,42 +3309,45 @@
         <v>31</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="1">
+        <v>136</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1">
         <f>2.4 * 21</f>
         <v>50.4</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <f>SQRT(1.2^2 * 21^2)</f>
         <v>25.2</v>
       </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
         <v>163</v>
       </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
         <v>0</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
       </c>
       <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -3194,29 +3361,29 @@
         <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="2">
+        <v>137</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="2">
         <v>67.489999999999995</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <f>2.73</f>
         <v>2.73</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>109</v>
       </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
       <c r="J52" s="2">
         <v>0</v>
       </c>
       <c r="K52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -3225,10 +3392,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>101</v>
       </c>
@@ -3242,124 +3412,132 @@
         <v>52</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="1">
+        <v>137</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1">
         <v>50.98</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>25.3</v>
       </c>
-      <c r="H53" s="3">
+      <c r="I53" s="3">
         <v>175</v>
       </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
         <v>0</v>
       </c>
       <c r="N53" s="2">
         <v>0</v>
       </c>
       <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
         <v>0.88</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="2">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="G54" s="2">
-        <v>10.3</v>
-      </c>
-      <c r="H54" s="7">
-        <v>364</v>
-      </c>
-      <c r="I54" s="2">
-        <v>1</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="G54" s="1">
         <f>3.62 *10</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H54" s="1">
         <f>SQRT(0.9^2 * 10^2)</f>
         <v>9</v>
       </c>
-      <c r="H55" s="3">
+      <c r="I54" s="3">
         <v>441</v>
       </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <v>1</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="1">
+        <v>19.89</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="2">
+        <f>4.2*21</f>
+        <v>88.2</v>
+      </c>
+      <c r="H55" s="1">
+        <f>SQRT(0.99^2* 21^2)</f>
+        <v>20.79</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1711</v>
+      </c>
+      <c r="J55" s="2">
         <v>0</v>
       </c>
       <c r="K55" s="2">
-        <v>1</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
       </c>
       <c r="M55" s="2">
         <v>1</v>
@@ -3368,192 +3546,202 @@
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B56" s="1">
-        <v>19.89</v>
+        <v>39.5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="2">
-        <f>4.2*21</f>
-        <v>88.2</v>
+        <v>137</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G56" s="1">
-        <f>SQRT(0.99^2* 21^2)</f>
-        <v>20.79</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1711</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
+        <v>37.86</v>
+      </c>
+      <c r="H56" s="1">
+        <v>26.28</v>
+      </c>
+      <c r="I56" s="3">
+        <v>66</v>
       </c>
       <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
       </c>
       <c r="L56" s="2">
         <v>1</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="1">
         <v>0</v>
       </c>
       <c r="N56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="2">
-        <v>0.71399999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B57" s="1">
-        <v>39.5</v>
+        <v>30.28</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="1">
-        <v>37.86</v>
-      </c>
-      <c r="G57" s="1">
-        <v>26.28</v>
-      </c>
-      <c r="H57" s="3">
-        <v>66</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0.38800000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="1">
-        <v>30.28</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="2">
+        <v>135</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="2">
         <f>43.8 /16 *21</f>
         <v>57.487499999999997</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H57" s="1">
         <f>SQRT(14.65^2 * (21/16)^2)</f>
         <v>19.228125000000002</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="2">
-        <v>0</v>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="1">
+        <v>32.64</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="1">
+        <f>76.74 / 25 *21</f>
+        <v>64.461600000000004</v>
+      </c>
+      <c r="H58" s="1">
+        <f>SQRT(27.13^2 * (21/25)^2)</f>
+        <v>22.789199999999997</v>
+      </c>
+      <c r="I58" s="3">
+        <v>589</v>
       </c>
       <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
         <v>0</v>
       </c>
       <c r="L58" s="2">
         <v>1</v>
       </c>
-      <c r="M58" s="2">
-        <v>1</v>
+      <c r="M58" s="1">
+        <v>0</v>
       </c>
       <c r="N58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
-        <v>0.63600000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B59" s="1">
-        <v>32.64</v>
+        <v>26.68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="1">
-        <f>76.74 / 25 *21</f>
-        <v>64.461600000000004</v>
-      </c>
-      <c r="G59" s="1">
-        <f>SQRT(27.13^2 * (21/25)^2)</f>
-        <v>22.789199999999997</v>
-      </c>
-      <c r="H59" s="3">
-        <v>589</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="2">
+        <v>25.19</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9.48</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2267</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
       </c>
       <c r="K59" s="2">
         <v>1</v>
       </c>
-      <c r="L59" s="1">
-        <v>0</v>
+      <c r="L59" s="2">
+        <v>1</v>
       </c>
       <c r="M59" s="2">
         <v>0</v>
@@ -3562,92 +3750,98 @@
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B60" s="1">
-        <v>26.68</v>
+        <v>52</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="2">
-        <v>25.19</v>
-      </c>
-      <c r="G60" s="1">
-        <v>9.48</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2267</v>
-      </c>
-      <c r="I60" s="2">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="2">
+        <f>2.6*21</f>
+        <v>54.6</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="I60" s="3">
+        <v>700</v>
       </c>
       <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
       </c>
       <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
       </c>
-      <c r="O60" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B61" s="1">
-        <v>52</v>
+        <v>30.67</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="2">
-        <f>2.6*21</f>
-        <v>54.6</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="H61" s="3">
-        <v>700</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="2">
+        <v>61.03</v>
+      </c>
+      <c r="H61" s="1">
+        <v>21.28</v>
+      </c>
+      <c r="I61" s="3">
+        <v>144</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
       </c>
       <c r="K61" s="2">
         <v>1</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61" s="2">
         <v>1</v>
       </c>
       <c r="M61" s="2">
@@ -3657,282 +3851,301 @@
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <v>0.54700000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B62" s="1">
-        <v>30.67</v>
+        <v>41.8</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="2">
-        <v>61.03</v>
-      </c>
-      <c r="G62" s="1">
-        <v>21.28</v>
-      </c>
-      <c r="H62" s="3">
-        <v>144</v>
-      </c>
-      <c r="I62" s="2">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="2">
+        <v>46.6</v>
+      </c>
+      <c r="H62" s="1">
+        <v>24.61</v>
+      </c>
+      <c r="I62" s="3">
+        <v>673</v>
       </c>
       <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
       </c>
       <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <v>0.436</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B63" s="1">
-        <v>41.8</v>
+        <v>51.57</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="2">
-        <v>46.6</v>
-      </c>
-      <c r="G63" s="1">
-        <v>24.61</v>
-      </c>
-      <c r="H63" s="3">
-        <v>673</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1">
+        <v>135</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="2">
+        <f>3.18*21</f>
+        <v>66.78</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="I63" s="3">
+        <v>200</v>
+      </c>
+      <c r="J63" s="2">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>1</v>
-      </c>
-      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
         <v>1</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
       </c>
       <c r="N63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B64" s="1">
-        <v>51.57</v>
+        <v>43.35</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="2">
-        <f>3.18*21</f>
-        <v>66.78</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="H64" s="3">
-        <v>200</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0.747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="1">
-        <v>43.35</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="2">
+        <v>136</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="2">
         <f>2.24*21</f>
         <v>47.040000000000006</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H64" s="1">
         <v>1.24</v>
       </c>
-      <c r="H65" s="3">
+      <c r="I64" s="3">
         <v>179</v>
       </c>
-      <c r="I65" s="2">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1">
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="7">
+        <v>35</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="8">
+        <v>37.1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="I65" s="3">
+        <v>202</v>
+      </c>
+      <c r="J65" s="2">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
         <v>1</v>
       </c>
       <c r="M65" s="2">
         <v>0</v>
       </c>
       <c r="N65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="2">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="8">
-        <v>35</v>
+      <c r="B66" s="1">
+        <v>30.39</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="9">
-        <v>37.1</v>
+        <v>28</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G66" s="2">
-        <v>24.7</v>
-      </c>
-      <c r="H66" s="3">
-        <v>202</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0</v>
+        <v>97.09</v>
+      </c>
+      <c r="H66" s="2">
+        <v>18.27</v>
+      </c>
+      <c r="I66" s="6">
+        <v>2750</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
       </c>
-      <c r="K66" s="2">
-        <v>1</v>
+      <c r="K66" s="1">
+        <v>0</v>
       </c>
       <c r="L66" s="2">
         <v>0</v>
       </c>
-      <c r="M66" s="2">
-        <v>1</v>
+      <c r="M66" s="1">
+        <v>0</v>
       </c>
       <c r="N66" s="2">
         <v>1</v>
       </c>
       <c r="O66" s="2">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="1">
-        <v>30.39</v>
+      <c r="B67" s="7">
+        <v>60</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="2">
-        <v>97.09</v>
-      </c>
-      <c r="G67" s="2">
-        <v>18.27</v>
-      </c>
-      <c r="H67" s="7">
-        <v>2750</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1">
+        <v>135</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="1">
+        <f>3.65*21</f>
+        <v>76.649999999999991</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I67" s="3">
+        <v>338</v>
+      </c>
+      <c r="J67" s="2">
         <v>0</v>
       </c>
       <c r="K67" s="2">
         <v>0</v>
       </c>
-      <c r="L67" s="1">
-        <v>0</v>
+      <c r="L67" s="2">
+        <v>1</v>
       </c>
       <c r="M67" s="2">
         <v>1</v>
@@ -3941,157 +4154,168 @@
         <v>0</v>
       </c>
       <c r="O67" s="2">
-        <v>0.76700000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="8">
-        <v>60</v>
+        <v>121</v>
+      </c>
+      <c r="B68" s="1">
+        <v>41.53</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="1">
-        <f>3.65*21</f>
-        <v>76.649999999999991</v>
+        <v>135</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G68" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="H68" s="3">
-        <v>338</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0</v>
+        <v>76.180000000000007</v>
+      </c>
+      <c r="H68" s="1">
+        <v>16.004000000000001</v>
+      </c>
+      <c r="I68" s="3">
+        <v>233</v>
       </c>
       <c r="J68" s="2">
         <v>0</v>
       </c>
-      <c r="K68" s="2">
-        <v>1</v>
+      <c r="K68" s="1">
+        <v>0</v>
       </c>
       <c r="L68" s="2">
         <v>1</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="1">
         <v>0</v>
       </c>
       <c r="N68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="2">
-        <v>0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B69" s="1">
-        <v>41.53</v>
+        <v>45.93</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="1">
-        <v>76.180000000000007</v>
+        <v>138</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G69" s="1">
-        <v>16.004000000000001</v>
-      </c>
-      <c r="H69" s="3">
-        <v>233</v>
-      </c>
-      <c r="I69" s="2">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="H69" s="1">
+        <v>11.72</v>
+      </c>
+      <c r="I69" s="3">
+        <v>767</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
         <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>0</v>
-      </c>
-      <c r="M69" s="2">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1">
         <v>0</v>
       </c>
       <c r="N69" s="2">
         <v>0</v>
       </c>
-      <c r="O69" s="2">
-        <v>0.49399999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B70" s="1">
-        <v>45.93</v>
+        <v>34.07</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="1">
-        <v>21.6</v>
+        <v>135</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G70" s="1">
-        <v>11.72</v>
-      </c>
-      <c r="H70" s="3">
-        <v>767</v>
-      </c>
-      <c r="I70" s="2">
-        <v>1</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1</v>
+        <v>65.650000000000006</v>
+      </c>
+      <c r="H70" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I70" s="3">
+        <v>116</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
-      </c>
-      <c r="L70" s="1">
-        <v>0</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
         <v>0</v>
       </c>
       <c r="O70" s="2">
-        <v>0.96599999999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B71" s="1">
-        <v>34.07</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>30</v>
@@ -4100,92 +4324,98 @@
         <v>28</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="1">
-        <v>65.650000000000006</v>
+        <v>135</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G71" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="H71" s="3">
-        <v>116</v>
-      </c>
-      <c r="I71" s="2">
-        <v>0</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>0</v>
-      </c>
-      <c r="L71" s="1">
-        <v>0</v>
-      </c>
-      <c r="M71" s="2">
-        <v>0</v>
+        <v>70.53</v>
+      </c>
+      <c r="H71" s="1">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="I71" s="3">
+        <v>179</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1</v>
       </c>
       <c r="N71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="2">
-        <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B72" s="1">
-        <v>30</v>
+        <v>53.61</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="1">
-        <v>70.53</v>
+        <v>137</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G72" s="1">
-        <v>17.260000000000002</v>
-      </c>
-      <c r="H72" s="3">
-        <v>179</v>
-      </c>
-      <c r="I72" s="2">
-        <v>0</v>
+        <v>52.89</v>
+      </c>
+      <c r="H72" s="1">
+        <v>22.75</v>
+      </c>
+      <c r="I72" s="3">
+        <v>146</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
       </c>
-      <c r="K72" s="2">
-        <v>1</v>
+      <c r="K72" s="1">
+        <v>0</v>
       </c>
       <c r="L72" s="1">
         <v>1</v>
       </c>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-      <c r="N72" s="2">
-        <v>0</v>
-      </c>
-      <c r="O72" s="2">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B73" s="1">
-        <v>53.61</v>
+        <v>60.8</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>16</v>
@@ -4194,68 +4424,71 @@
         <v>65</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="1">
-        <v>52.89</v>
+        <v>137</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G73" s="1">
-        <v>22.75</v>
-      </c>
-      <c r="H73" s="3">
-        <v>146</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1">
-        <v>1</v>
-      </c>
-      <c r="L73" s="1">
-        <v>0</v>
-      </c>
-      <c r="M73" s="1">
-        <v>1</v>
-      </c>
-      <c r="N73" s="1">
-        <v>0</v>
-      </c>
-      <c r="O73" s="2">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="1">
-        <v>60.8</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="1">
         <f>27.5 / 10 * 21</f>
         <v>57.75</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H73" s="1">
         <f>SQRT(13.52^2 * (21/10)^2)</f>
         <v>28.391999999999999</v>
       </c>
-      <c r="H74" s="3">
+      <c r="I73" s="3">
         <v>100</v>
       </c>
-      <c r="I74" s="1">
-        <v>1</v>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="1">
+        <v>63.28</v>
+      </c>
+      <c r="H74" s="1">
+        <v>23.41</v>
+      </c>
+      <c r="I74" s="3">
+        <v>455</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -4264,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="1">
         <v>0</v>
@@ -4273,45 +4506,48 @@
         <v>0</v>
       </c>
       <c r="O74" s="1">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B75" s="1">
-        <v>30.3</v>
+        <v>21.64</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="1">
-        <v>63.28</v>
+        <v>137</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G75" s="1">
-        <v>23.41</v>
-      </c>
-      <c r="H75" s="3">
-        <v>455</v>
-      </c>
-      <c r="I75" s="1">
-        <v>1</v>
+        <v>37.18</v>
+      </c>
+      <c r="H75" s="1">
+        <v>24.18</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1206</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="1">
         <v>0</v>
@@ -4320,60 +4556,17 @@
         <v>0</v>
       </c>
       <c r="O75" s="1">
-        <v>0.65800000000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="1">
-        <v>21.64</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="1">
-        <v>37.18</v>
-      </c>
-      <c r="G76" s="1">
-        <v>24.18</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1206</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1">
-        <v>1</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0</v>
-      </c>
-      <c r="N76" s="1">
-        <v>0</v>
-      </c>
-      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5293,7 +5486,6 @@
     <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
